--- a/Phase2-Project Design document/data/table_status.xlsx
+++ b/Phase2-Project Design document/data/table_status.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>loc</t>
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>E</t>
@@ -388,7 +385,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,50 +400,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
